--- a/healthcare-investors.xlsx
+++ b/healthcare-investors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\R\Projects\canadian-healthcare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A2C5E-45F6-41F7-BF5D-56472E2BA25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81EC47-5886-4C59-BE91-D05CF11F20A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{3FC3A50F-CC3F-4509-8E17-ABBB1BD078B7}"/>
   </bookViews>
@@ -948,14 +948,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CB464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" customWidth="1"/>
     <col min="8" max="8" width="55.85546875" customWidth="1"/>
@@ -14196,8 +14196,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CB464"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection sqref="A1:CB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BN15" sqref="BN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
